--- a/UI/bin/Debug/Excel/StockInfoCheckTicket.xlsx
+++ b/UI/bin/Debug/Excel/StockInfoCheckTicket.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>零件号</t>
   </si>
@@ -100,6 +100,22 @@
   </si>
   <si>
     <t>@item[i].storageLocationName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].supplierName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商代号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>@item[i].supplierNo</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -120,6 +136,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -127,17 +144,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -145,12 +165,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -519,57 +541,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="27.875" customWidth="1"/>
-    <col min="4" max="4" width="48.125" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="6" max="6" width="48.125" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.25">
+    <row r="2" spans="1:12" ht="14.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -577,44 +607,51 @@
         <v>3</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25">
+    <row r="3" spans="1:12" ht="14.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="G4" s="6"/>
+    <row r="4" spans="1:12">
+      <c r="I4" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
